--- a/descriptive_statistics.xlsx
+++ b/descriptive_statistics.xlsx
@@ -387,39 +387,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>468</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2822</t>
+          <t>2254</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -429,147 +429,147 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2492.96</t>
+          <t>829.93</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100.39</t>
+          <t>44.19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>99.57</t>
+          <t>32.85</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1131.1</t>
+          <t>149.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1184.27</t>
+          <t>612.16</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5255</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2284</t>
+          <t>270</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2696</t>
+          <t>1571</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3.390743e+12</t>
+          <t>3.632122e+09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.085326e+11</t>
+          <t>6.687919e+09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.756992e+11</t>
+          <t>1.112117e+10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.388358e+11</t>
+          <t>4.359583e+09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.045772e+12</t>
+          <t>2.906163e+09</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2.322141e+12</t>
+          <t>1.39382e+09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3.331569e+11</t>
+          <t>2.28823e+09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.258591e+11</t>
+          <t>2.792855e+09</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.159941e+11</t>
+          <t>1.61394e+09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.074046e+12</t>
+          <t>1.29495e+09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9.08719e+14</t>
+          <t>8.078566e+14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.528195e+13</t>
+          <t>7.211583e+13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8.716221e+13</t>
+          <t>8.476558e+13</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.98008e+14</t>
+          <t>1.741959e+14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.482669e+14</t>
+          <t>4.767793e+14</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.79</t>
+          <t>21.56</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>60.33</t>
+          <t>59.02</t>
         </is>
       </c>
     </row>

--- a/descriptive_statistics.xlsx
+++ b/descriptive_statistics.xlsx
@@ -495,81 +495,81 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3.632122e+09</t>
+          <t>3.021811e+12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6.687919e+09</t>
+          <t>2.965056e+11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.112117e+10</t>
+          <t>3.659025e+11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.359583e+09</t>
+          <t>6.53666e+11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.906163e+09</t>
+          <t>1.78144e+12</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.39382e+09</t>
+          <t>2.045943e+12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.28823e+09</t>
+          <t>3.07879e+11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.792855e+09</t>
+          <t>4.067016e+11</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.61394e+09</t>
+          <t>5.652418e+11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.29495e+09</t>
+          <t>8.723458e+11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8.078566e+14</t>
+          <t>8.098453e+14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.211583e+13</t>
+          <t>7.234736e+13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8.476558e+13</t>
+          <t>8.488939e+13</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.741959e+14</t>
+          <t>1.751825e+14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.767793e+14</t>
+          <t>4.77426e+14</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>21.63</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>59.02</t>
+          <t>58.95</t>
         </is>
       </c>
     </row>

--- a/descriptive_statistics.xlsx
+++ b/descriptive_statistics.xlsx
@@ -387,39 +387,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2987</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>184</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>704</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2254</t>
+          <t>2736</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -429,147 +429,147 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>829.93</t>
+          <t>1315.49</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>44.19</t>
+          <t>58.74</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>32.85</t>
+          <t>41.32</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>149.09</t>
+          <t>231.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>612.16</t>
+          <t>994.75</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>2765</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>411</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1571</t>
+          <t>2229</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3.021811e+12</t>
+          <t>3.275574e+12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.965056e+11</t>
+          <t>3.033386e+11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.659025e+11</t>
+          <t>3.699309e+11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.53666e+11</t>
+          <t>6.90326e+11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.78144e+12</t>
+          <t>1.988835e+12</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2.045943e+12</t>
+          <t>2.232e+12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3.07879e+11</t>
+          <t>3.208394e+11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.067016e+11</t>
+          <t>4.116409e+11</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.652418e+11</t>
+          <t>6.002086e+11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.723458e+11</t>
+          <t>1.024141e+12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8.098453e+14</t>
+          <t>8.778538e+14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.234736e+13</t>
+          <t>7.401462e+13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8.488939e+13</t>
+          <t>8.582397e+13</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.751825e+14</t>
+          <t>1.850074e+14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.77426e+14</t>
+          <t>5.330079e+14</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.63</t>
+          <t>21.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>58.95</t>
+          <t>60.72</t>
         </is>
       </c>
     </row>
